--- a/database/industries/shoyande/gharn/product/yearly_seprated.xlsx
+++ b/database/industries/shoyande/gharn/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\gharn\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\gharn\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A002B75-5E4E-4C0A-97CF-8BB2C6D241C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB4E8D2-2860-46C8-A974-3EF494DBB77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>قرن-پدیده شیمی قرن</t>
@@ -655,12 +655,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -670,7 +670,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -682,7 +682,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -694,7 +694,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -704,7 +704,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -716,7 +716,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -728,7 +728,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -738,7 +738,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -760,7 +760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -770,7 +770,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -782,7 +782,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -830,7 +830,7 @@
         <v>41180</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -854,7 +854,7 @@
         <v>44640</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -878,7 +878,7 @@
         <v>48209</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>17</v>
       </c>
@@ -900,7 +900,7 @@
         <v>134029</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -912,7 +912,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>14</v>
       </c>
@@ -960,7 +960,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>15</v>
       </c>
@@ -984,7 +984,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>16</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>19</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>20</v>
       </c>
@@ -1042,7 +1042,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>23</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>24</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>26</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>27</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>135418</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1166,7 +1166,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1176,7 +1176,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1186,7 +1186,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>28</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1218,7 +1218,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>29</v>
       </c>
@@ -1230,7 +1230,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>11</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>14</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>9497568</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>15</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>8079142</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>16</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>5289714</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
         <v>17</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>22866424</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>31</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>11</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>14</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>53518</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>15</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>120967</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>16</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>26237</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
         <v>19</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>200722</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>32</v>
       </c>
@@ -1490,7 +1490,7 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>21</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>23</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
         <v>24</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
         <v>26</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
         <v>27</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>23112181</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1616,7 +1616,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1626,7 +1626,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1636,7 +1636,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
         <v>33</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1668,7 +1668,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>34</v>
       </c>
@@ -1680,7 +1680,7 @@
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>11</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>14</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>230635454</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>15</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>180984364</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>16</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>109724616</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
         <v>36</v>
       </c>
@@ -1788,7 +1788,7 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>11</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>14</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>284670213</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>15</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>114335539</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>16</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>183475524</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
         <v>37</v>
       </c>
@@ -1896,7 +1896,7 @@
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>21</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1930,7 +1930,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1940,7 +1940,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1950,7 +1950,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
         <v>39</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1982,7 +1982,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
         <v>40</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>11</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
         <v>14</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>-6649868</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
         <v>15</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>-6487519</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
         <v>16</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>-4411283</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="14" t="s">
         <v>41</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>-17548670</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
         <v>42</v>
       </c>
@@ -2124,7 +2124,7 @@
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
         <v>11</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
         <v>14</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>-42383</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>15</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>-112371</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
         <v>16</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>-20198</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="14" t="s">
         <v>43</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>-174952</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
         <v>44</v>
       </c>
@@ -2254,7 +2254,7 @@
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
         <v>21</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>-33207</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="16" t="s">
         <v>45</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>-33207</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="14" t="s">
         <v>24</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="16" t="s">
         <v>26</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="14" t="s">
         <v>27</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>-17756829</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2380,7 +2380,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2390,7 +2390,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2400,7 +2400,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
         <v>46</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2432,7 +2432,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
         <v>47</v>
       </c>
@@ -2444,7 +2444,7 @@
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>11</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
         <v>14</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>2847700</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
         <v>15</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>1591623</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
         <v>16</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>878431</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="14" t="s">
         <v>48</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>5317754</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
         <v>49</v>
       </c>
@@ -2574,7 +2574,7 @@
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
         <v>11</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
         <v>14</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>11135</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
         <v>15</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>8596</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
         <v>16</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>6039</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="14" t="s">
         <v>50</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>25770</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
         <v>51</v>
       </c>
@@ -2704,7 +2704,7 @@
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
         <v>21</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>11828</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="16" t="s">
         <v>52</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>11828</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="14" t="s">
         <v>27</v>
       </c>

--- a/database/industries/shoyande/gharn/product/yearly_seprated.xlsx
+++ b/database/industries/shoyande/gharn/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\gharn\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\gharn\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB4E8D2-2860-46C8-A974-3EF494DBB77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B601C0AA-F86C-4D16-87AF-A7F6198B9DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -655,12 +655,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -670,7 +670,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -682,7 +682,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -694,7 +694,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -704,7 +704,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -716,7 +716,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -728,7 +728,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -738,7 +738,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -760,7 +760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -770,7 +770,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -782,7 +782,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -799,14 +799,14 @@
       <c r="G11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -814,23 +814,23 @@
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>13</v>
+      <c r="E12" s="13">
+        <v>34854</v>
       </c>
       <c r="F12" s="13">
-        <v>34854</v>
+        <v>38507</v>
       </c>
       <c r="G12" s="13">
-        <v>38507</v>
+        <v>57879</v>
       </c>
       <c r="H12" s="13">
-        <v>57879</v>
+        <v>41180</v>
       </c>
       <c r="I12" s="13">
-        <v>41180</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -838,23 +838,23 @@
         <v>12</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
+      <c r="E13" s="11">
+        <v>39052</v>
       </c>
       <c r="F13" s="11">
-        <v>39052</v>
+        <v>44951</v>
       </c>
       <c r="G13" s="11">
-        <v>44951</v>
+        <v>49538</v>
       </c>
       <c r="H13" s="11">
-        <v>49538</v>
+        <v>44640</v>
       </c>
       <c r="I13" s="11">
-        <v>44640</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>62574</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -862,45 +862,45 @@
         <v>12</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>13</v>
+      <c r="E14" s="13">
+        <v>33601</v>
       </c>
       <c r="F14" s="13">
-        <v>33601</v>
+        <v>36755</v>
       </c>
       <c r="G14" s="13">
-        <v>36755</v>
+        <v>42969</v>
       </c>
       <c r="H14" s="13">
-        <v>42969</v>
+        <v>48209</v>
       </c>
       <c r="I14" s="13">
-        <v>48209</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>54128</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15">
-        <v>0</v>
+        <v>107507</v>
       </c>
       <c r="F15" s="15">
-        <v>107507</v>
+        <v>120213</v>
       </c>
       <c r="G15" s="15">
-        <v>120213</v>
+        <v>150386</v>
       </c>
       <c r="H15" s="15">
-        <v>150386</v>
+        <v>134029</v>
       </c>
       <c r="I15" s="15">
-        <v>134029</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>161071</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -912,7 +912,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
@@ -929,14 +929,14 @@
       <c r="G17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>14</v>
       </c>
@@ -944,23 +944,23 @@
         <v>12</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
-        <v>13</v>
+      <c r="E18" s="13">
+        <v>113</v>
       </c>
       <c r="F18" s="13">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="G18" s="13">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H18" s="13">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="I18" s="13">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>15</v>
       </c>
@@ -968,23 +968,23 @@
         <v>12</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>13</v>
+      <c r="E19" s="11">
+        <v>81</v>
       </c>
       <c r="F19" s="11">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G19" s="11">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="H19" s="11">
-        <v>44</v>
+        <v>1058</v>
       </c>
       <c r="I19" s="11">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5875</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>16</v>
       </c>
@@ -992,45 +992,45 @@
         <v>12</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
-        <v>13</v>
+      <c r="E20" s="13">
+        <v>401</v>
       </c>
       <c r="F20" s="13">
-        <v>401</v>
+        <v>83</v>
       </c>
       <c r="G20" s="13">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="H20" s="13">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="I20" s="13">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="F21" s="15">
-        <v>595</v>
+        <v>198</v>
       </c>
       <c r="G21" s="15">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="H21" s="15">
-        <v>133</v>
+        <v>1389</v>
       </c>
       <c r="I21" s="15">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>20</v>
       </c>
@@ -1042,7 +1042,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
@@ -1059,14 +1059,14 @@
       <c r="G23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>13</v>
+      <c r="H23" s="11">
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>23</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>24</v>
       </c>
@@ -1096,30 +1096,30 @@
         <v>25</v>
       </c>
       <c r="D25" s="15"/>
-      <c r="E25" s="15" t="s">
-        <v>13</v>
+      <c r="E25" s="15">
+        <v>-1116</v>
       </c>
       <c r="F25" s="15">
-        <v>-1116</v>
+        <v>-729</v>
       </c>
       <c r="G25" s="15">
-        <v>-729</v>
-      </c>
-      <c r="H25" s="15">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="I25" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="17" t="s">
-        <v>13</v>
+      <c r="E26" s="17">
+        <v>0</v>
       </c>
       <c r="F26" s="17">
         <v>0</v>
@@ -1134,29 +1134,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <v>0</v>
+        <v>106986</v>
       </c>
       <c r="F27" s="15">
-        <v>106986</v>
+        <v>119682</v>
       </c>
       <c r="G27" s="15">
-        <v>119682</v>
+        <v>150519</v>
       </c>
       <c r="H27" s="15">
-        <v>150519</v>
+        <v>135418</v>
       </c>
       <c r="I27" s="15">
-        <v>135418</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>168029</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1166,7 +1166,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1176,7 +1176,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1186,7 +1186,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>28</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1218,7 +1218,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>29</v>
       </c>
@@ -1230,7 +1230,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>11</v>
       </c>
@@ -1247,14 +1247,14 @@
       <c r="G34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>14</v>
       </c>
@@ -1262,23 +1262,23 @@
         <v>30</v>
       </c>
       <c r="D35" s="13"/>
-      <c r="E35" s="13" t="s">
-        <v>13</v>
+      <c r="E35" s="13">
+        <v>2490590</v>
       </c>
       <c r="F35" s="13">
-        <v>2490590</v>
+        <v>4072847</v>
       </c>
       <c r="G35" s="13">
-        <v>4072847</v>
+        <v>8141476</v>
       </c>
       <c r="H35" s="13">
-        <v>8141476</v>
+        <v>9497568</v>
       </c>
       <c r="I35" s="13">
-        <v>9497568</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13687665</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>15</v>
       </c>
@@ -1286,23 +1286,23 @@
         <v>30</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>13</v>
+      <c r="E36" s="11">
+        <v>2413367</v>
       </c>
       <c r="F36" s="11">
-        <v>2413367</v>
+        <v>4012183</v>
       </c>
       <c r="G36" s="11">
-        <v>4012183</v>
+        <v>6398443</v>
       </c>
       <c r="H36" s="11">
-        <v>6398443</v>
+        <v>8079142</v>
       </c>
       <c r="I36" s="11">
-        <v>8079142</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14980571</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>16</v>
       </c>
@@ -1310,45 +1310,45 @@
         <v>30</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="13" t="s">
-        <v>13</v>
+      <c r="E37" s="13">
+        <v>1348223</v>
       </c>
       <c r="F37" s="13">
-        <v>1348223</v>
+        <v>2096509</v>
       </c>
       <c r="G37" s="13">
-        <v>2096509</v>
+        <v>3479204</v>
       </c>
       <c r="H37" s="13">
-        <v>3479204</v>
+        <v>5289714</v>
       </c>
       <c r="I37" s="13">
-        <v>5289714</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7732896</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15">
-        <v>0</v>
+        <v>6252180</v>
       </c>
       <c r="F38" s="15">
-        <v>6252180</v>
+        <v>10181539</v>
       </c>
       <c r="G38" s="15">
-        <v>10181539</v>
+        <v>18019123</v>
       </c>
       <c r="H38" s="15">
-        <v>18019123</v>
+        <v>22866424</v>
       </c>
       <c r="I38" s="15">
-        <v>22866424</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36401132</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>31</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>11</v>
       </c>
@@ -1377,14 +1377,14 @@
       <c r="G40" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>14</v>
       </c>
@@ -1392,23 +1392,23 @@
         <v>30</v>
       </c>
       <c r="D41" s="13"/>
-      <c r="E41" s="13" t="s">
-        <v>13</v>
+      <c r="E41" s="13">
+        <v>9307</v>
       </c>
       <c r="F41" s="13">
-        <v>9307</v>
+        <v>6921</v>
       </c>
       <c r="G41" s="13">
-        <v>6921</v>
+        <v>8013</v>
       </c>
       <c r="H41" s="13">
-        <v>8013</v>
+        <v>53518</v>
       </c>
       <c r="I41" s="13">
-        <v>53518</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>232474</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>15</v>
       </c>
@@ -1416,23 +1416,23 @@
         <v>30</v>
       </c>
       <c r="D42" s="11"/>
-      <c r="E42" s="11" t="s">
-        <v>13</v>
+      <c r="E42" s="11">
+        <v>3946</v>
       </c>
       <c r="F42" s="11">
-        <v>3946</v>
+        <v>5049</v>
       </c>
       <c r="G42" s="11">
-        <v>5049</v>
+        <v>5318</v>
       </c>
       <c r="H42" s="11">
-        <v>5318</v>
+        <v>120967</v>
       </c>
       <c r="I42" s="11">
-        <v>120967</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>845377</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>16</v>
       </c>
@@ -1440,45 +1440,45 @@
         <v>30</v>
       </c>
       <c r="D43" s="13"/>
-      <c r="E43" s="13" t="s">
-        <v>13</v>
+      <c r="E43" s="13">
+        <v>13040</v>
       </c>
       <c r="F43" s="13">
-        <v>13040</v>
+        <v>5880</v>
       </c>
       <c r="G43" s="13">
-        <v>5880</v>
+        <v>11669</v>
       </c>
       <c r="H43" s="13">
-        <v>11669</v>
+        <v>26237</v>
       </c>
       <c r="I43" s="13">
-        <v>26237</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>148191</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15">
-        <v>0</v>
+        <v>26293</v>
       </c>
       <c r="F44" s="15">
-        <v>26293</v>
+        <v>17850</v>
       </c>
       <c r="G44" s="15">
-        <v>17850</v>
+        <v>25000</v>
       </c>
       <c r="H44" s="15">
-        <v>25000</v>
+        <v>200722</v>
       </c>
       <c r="I44" s="15">
-        <v>200722</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1226042</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>32</v>
       </c>
@@ -1490,7 +1490,7 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>21</v>
       </c>
@@ -1507,14 +1507,14 @@
       <c r="G46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="11" t="s">
-        <v>13</v>
+      <c r="H46" s="11">
+        <v>45035</v>
       </c>
       <c r="I46" s="11">
-        <v>45035</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>65241</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="16" t="s">
         <v>23</v>
       </c>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="H47" s="17">
-        <v>0</v>
+        <v>45035</v>
       </c>
       <c r="I47" s="17">
-        <v>45035</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>65241</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>24</v>
       </c>
@@ -1544,23 +1544,23 @@
         <v>30</v>
       </c>
       <c r="D48" s="15"/>
-      <c r="E48" s="15" t="s">
-        <v>13</v>
+      <c r="E48" s="15">
+        <v>-71678</v>
       </c>
       <c r="F48" s="15">
-        <v>-71678</v>
+        <v>-69131</v>
       </c>
       <c r="G48" s="15">
-        <v>-69131</v>
-      </c>
-      <c r="H48" s="15">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="I48" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="16" t="s">
         <v>26</v>
       </c>
@@ -1568,8 +1568,8 @@
         <v>30</v>
       </c>
       <c r="D49" s="17"/>
-      <c r="E49" s="17" t="s">
-        <v>13</v>
+      <c r="E49" s="17">
+        <v>0</v>
       </c>
       <c r="F49" s="17">
         <v>0</v>
@@ -1584,29 +1584,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15">
-        <v>0</v>
+        <v>6206795</v>
       </c>
       <c r="F50" s="15">
-        <v>6206795</v>
+        <v>10130258</v>
       </c>
       <c r="G50" s="15">
-        <v>10130258</v>
+        <v>18044123</v>
       </c>
       <c r="H50" s="15">
-        <v>18044123</v>
+        <v>23112181</v>
       </c>
       <c r="I50" s="15">
-        <v>23112181</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>37692415</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1616,7 +1616,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1626,7 +1626,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1636,7 +1636,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>33</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1668,7 +1668,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>34</v>
       </c>
@@ -1680,7 +1680,7 @@
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>11</v>
       </c>
@@ -1697,14 +1697,14 @@
       <c r="G57" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H57" s="11">
+        <v>0</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>14</v>
       </c>
@@ -1712,23 +1712,23 @@
         <v>35</v>
       </c>
       <c r="D58" s="13"/>
-      <c r="E58" s="13" t="s">
-        <v>13</v>
+      <c r="E58" s="13">
+        <v>71457795</v>
       </c>
       <c r="F58" s="13">
-        <v>71457795</v>
+        <v>105769003</v>
       </c>
       <c r="G58" s="13">
-        <v>105769003</v>
+        <v>140663730</v>
       </c>
       <c r="H58" s="13">
-        <v>140663730</v>
+        <v>230635454</v>
       </c>
       <c r="I58" s="13">
-        <v>230635454</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>308496135</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>15</v>
       </c>
@@ -1736,23 +1736,23 @@
         <v>35</v>
       </c>
       <c r="D59" s="11"/>
-      <c r="E59" s="11" t="s">
-        <v>13</v>
+      <c r="E59" s="11">
+        <v>61798807</v>
       </c>
       <c r="F59" s="11">
-        <v>61798807</v>
+        <v>89256813</v>
       </c>
       <c r="G59" s="11">
-        <v>89256813</v>
+        <v>129162320</v>
       </c>
       <c r="H59" s="11">
-        <v>129162320</v>
+        <v>180984364</v>
       </c>
       <c r="I59" s="11">
-        <v>180984364</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>239405680</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>16</v>
       </c>
@@ -1760,23 +1760,23 @@
         <v>35</v>
       </c>
       <c r="D60" s="13"/>
-      <c r="E60" s="13" t="s">
-        <v>13</v>
+      <c r="E60" s="13">
+        <v>40124490</v>
       </c>
       <c r="F60" s="13">
-        <v>40124490</v>
+        <v>57040103</v>
       </c>
       <c r="G60" s="13">
-        <v>57040103</v>
+        <v>80970095</v>
       </c>
       <c r="H60" s="13">
-        <v>80970095</v>
+        <v>109724616</v>
       </c>
       <c r="I60" s="13">
-        <v>109724616</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>142863139</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>36</v>
       </c>
@@ -1788,7 +1788,7 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>11</v>
       </c>
@@ -1805,14 +1805,14 @@
       <c r="G62" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H62" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I62" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H62" s="11">
+        <v>0</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
         <v>14</v>
       </c>
@@ -1820,23 +1820,23 @@
         <v>35</v>
       </c>
       <c r="D63" s="13"/>
-      <c r="E63" s="13" t="s">
-        <v>13</v>
+      <c r="E63" s="13">
+        <v>82362832</v>
       </c>
       <c r="F63" s="13">
-        <v>82362832</v>
+        <v>135705882</v>
       </c>
       <c r="G63" s="13">
-        <v>135705882</v>
+        <v>267100000</v>
       </c>
       <c r="H63" s="13">
-        <v>267100000</v>
+        <v>284670213</v>
       </c>
       <c r="I63" s="13">
-        <v>284670213</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>507585153</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>15</v>
       </c>
@@ -1844,23 +1844,23 @@
         <v>35</v>
       </c>
       <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
-        <v>13</v>
+      <c r="E64" s="11">
+        <v>48716049</v>
       </c>
       <c r="F64" s="11">
-        <v>48716049</v>
+        <v>78890625</v>
       </c>
       <c r="G64" s="11">
-        <v>78890625</v>
+        <v>120863636</v>
       </c>
       <c r="H64" s="11">
-        <v>120863636</v>
+        <v>114335539</v>
       </c>
       <c r="I64" s="11">
-        <v>114335539</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>143893957</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>16</v>
       </c>
@@ -1868,23 +1868,23 @@
         <v>35</v>
       </c>
       <c r="D65" s="13"/>
-      <c r="E65" s="13" t="s">
-        <v>13</v>
+      <c r="E65" s="13">
+        <v>32518703</v>
       </c>
       <c r="F65" s="13">
-        <v>32518703</v>
+        <v>70843373</v>
       </c>
       <c r="G65" s="13">
-        <v>70843373</v>
+        <v>197779661</v>
       </c>
       <c r="H65" s="13">
-        <v>197779661</v>
+        <v>183475524</v>
       </c>
       <c r="I65" s="13">
-        <v>183475524</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>237105600</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>37</v>
       </c>
@@ -1896,7 +1896,7 @@
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>21</v>
       </c>
@@ -1913,14 +1913,14 @@
       <c r="G67" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H67" s="11" t="s">
-        <v>13</v>
+      <c r="H67" s="11">
+        <v>0</v>
       </c>
       <c r="I67" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1930,7 +1930,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1940,7 +1940,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1950,7 +1950,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>39</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1982,7 +1982,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>40</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>11</v>
       </c>
@@ -2011,14 +2011,14 @@
       <c r="G74" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H74" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H74" s="11">
+        <v>0</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>14</v>
       </c>
@@ -2026,23 +2026,23 @@
         <v>30</v>
       </c>
       <c r="D75" s="13"/>
-      <c r="E75" s="13" t="s">
-        <v>13</v>
+      <c r="E75" s="13">
+        <v>-1576062</v>
       </c>
       <c r="F75" s="13">
-        <v>-1576062</v>
+        <v>-2534468</v>
       </c>
       <c r="G75" s="13">
-        <v>-2534468</v>
+        <v>-5764047</v>
       </c>
       <c r="H75" s="13">
-        <v>-5764047</v>
+        <v>-6649868</v>
       </c>
       <c r="I75" s="13">
-        <v>-6649868</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-8791346</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>15</v>
       </c>
@@ -2050,23 +2050,23 @@
         <v>30</v>
       </c>
       <c r="D76" s="11"/>
-      <c r="E76" s="11" t="s">
-        <v>13</v>
+      <c r="E76" s="11">
+        <v>-1497635</v>
       </c>
       <c r="F76" s="11">
-        <v>-1497635</v>
+        <v>-2610947</v>
       </c>
       <c r="G76" s="11">
-        <v>-2610947</v>
+        <v>-4466566</v>
       </c>
       <c r="H76" s="11">
-        <v>-4466566</v>
+        <v>-6487519</v>
       </c>
       <c r="I76" s="11">
-        <v>-6487519</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-10782064</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>16</v>
       </c>
@@ -2074,45 +2074,45 @@
         <v>30</v>
       </c>
       <c r="D77" s="13"/>
-      <c r="E77" s="13" t="s">
-        <v>13</v>
+      <c r="E77" s="13">
+        <v>-899523</v>
       </c>
       <c r="F77" s="13">
-        <v>-899523</v>
+        <v>-1396991</v>
       </c>
       <c r="G77" s="13">
-        <v>-1396991</v>
+        <v>-2434227</v>
       </c>
       <c r="H77" s="13">
-        <v>-2434227</v>
+        <v>-4411283</v>
       </c>
       <c r="I77" s="13">
-        <v>-4411283</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-5882542</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15">
-        <v>0</v>
+        <v>-3973220</v>
       </c>
       <c r="F78" s="15">
-        <v>-3973220</v>
+        <v>-6542406</v>
       </c>
       <c r="G78" s="15">
-        <v>-6542406</v>
+        <v>-12664840</v>
       </c>
       <c r="H78" s="15">
-        <v>-12664840</v>
+        <v>-17548670</v>
       </c>
       <c r="I78" s="15">
-        <v>-17548670</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-25455952</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>42</v>
       </c>
@@ -2124,7 +2124,7 @@
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>11</v>
       </c>
@@ -2141,14 +2141,14 @@
       <c r="G80" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H80" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H80" s="11">
+        <v>0</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>14</v>
       </c>
@@ -2156,23 +2156,23 @@
         <v>30</v>
       </c>
       <c r="D81" s="13"/>
-      <c r="E81" s="13" t="s">
-        <v>13</v>
+      <c r="E81" s="13">
+        <v>-5597</v>
       </c>
       <c r="F81" s="13">
-        <v>-5597</v>
+        <v>-4717</v>
       </c>
       <c r="G81" s="13">
-        <v>-4717</v>
+        <v>-6093</v>
       </c>
       <c r="H81" s="13">
-        <v>-6093</v>
+        <v>-42383</v>
       </c>
       <c r="I81" s="13">
-        <v>-42383</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-136129</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>15</v>
       </c>
@@ -2180,23 +2180,23 @@
         <v>30</v>
       </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
-        <v>13</v>
+      <c r="E82" s="11">
+        <v>-2846</v>
       </c>
       <c r="F82" s="11">
-        <v>-2846</v>
+        <v>-2665</v>
       </c>
       <c r="G82" s="11">
-        <v>-2665</v>
+        <v>-3488</v>
       </c>
       <c r="H82" s="11">
-        <v>-3488</v>
+        <v>-112371</v>
       </c>
       <c r="I82" s="11">
-        <v>-112371</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-576808</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="12" t="s">
         <v>16</v>
       </c>
@@ -2204,45 +2204,45 @@
         <v>30</v>
       </c>
       <c r="D83" s="13"/>
-      <c r="E83" s="13" t="s">
-        <v>13</v>
+      <c r="E83" s="13">
+        <v>-9061</v>
       </c>
       <c r="F83" s="13">
-        <v>-9061</v>
+        <v>-4293</v>
       </c>
       <c r="G83" s="13">
-        <v>-4293</v>
+        <v>-8243</v>
       </c>
       <c r="H83" s="13">
-        <v>-8243</v>
+        <v>-20198</v>
       </c>
       <c r="I83" s="13">
-        <v>-20198</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-104094</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15">
-        <v>0</v>
+        <v>-17504</v>
       </c>
       <c r="F84" s="15">
-        <v>-17504</v>
+        <v>-11675</v>
       </c>
       <c r="G84" s="15">
-        <v>-11675</v>
+        <v>-17824</v>
       </c>
       <c r="H84" s="15">
-        <v>-17824</v>
+        <v>-174952</v>
       </c>
       <c r="I84" s="15">
-        <v>-174952</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-817031</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>44</v>
       </c>
@@ -2254,7 +2254,7 @@
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>21</v>
       </c>
@@ -2271,14 +2271,14 @@
       <c r="G86" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H86" s="11" t="s">
-        <v>13</v>
+      <c r="H86" s="11">
+        <v>-33207</v>
       </c>
       <c r="I86" s="11">
-        <v>-33207</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-44327</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="16" t="s">
         <v>45</v>
       </c>
@@ -2294,13 +2294,13 @@
         <v>0</v>
       </c>
       <c r="H87" s="17">
-        <v>0</v>
+        <v>-33207</v>
       </c>
       <c r="I87" s="17">
-        <v>-33207</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-44327</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="14" t="s">
         <v>24</v>
       </c>
@@ -2308,23 +2308,23 @@
         <v>30</v>
       </c>
       <c r="D88" s="15"/>
-      <c r="E88" s="15" t="s">
-        <v>13</v>
+      <c r="E88" s="15">
+        <v>42383</v>
       </c>
       <c r="F88" s="15">
-        <v>42383</v>
+        <v>42198</v>
       </c>
       <c r="G88" s="15">
-        <v>42198</v>
-      </c>
-      <c r="H88" s="15">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H88" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="I88" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="16" t="s">
         <v>26</v>
       </c>
@@ -2332,8 +2332,8 @@
         <v>30</v>
       </c>
       <c r="D89" s="17"/>
-      <c r="E89" s="17" t="s">
-        <v>13</v>
+      <c r="E89" s="17">
+        <v>0</v>
       </c>
       <c r="F89" s="17">
         <v>0</v>
@@ -2348,29 +2348,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15">
-        <v>0</v>
+        <v>-3948341</v>
       </c>
       <c r="F90" s="15">
-        <v>-3948341</v>
+        <v>-6511883</v>
       </c>
       <c r="G90" s="15">
-        <v>-6511883</v>
+        <v>-12682664</v>
       </c>
       <c r="H90" s="15">
-        <v>-12682664</v>
+        <v>-17756829</v>
       </c>
       <c r="I90" s="15">
-        <v>-17756829</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-26317310</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2380,7 +2380,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2390,7 +2390,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2400,7 +2400,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
         <v>46</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2432,7 +2432,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>47</v>
       </c>
@@ -2444,7 +2444,7 @@
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>11</v>
       </c>
@@ -2461,14 +2461,14 @@
       <c r="G97" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H97" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I97" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H97" s="11">
+        <v>0</v>
+      </c>
+      <c r="I97" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>14</v>
       </c>
@@ -2476,23 +2476,23 @@
         <v>30</v>
       </c>
       <c r="D98" s="13"/>
-      <c r="E98" s="13" t="s">
-        <v>13</v>
+      <c r="E98" s="13">
+        <v>914528</v>
       </c>
       <c r="F98" s="13">
-        <v>914528</v>
+        <v>1538379</v>
       </c>
       <c r="G98" s="13">
-        <v>1538379</v>
+        <v>2377429</v>
       </c>
       <c r="H98" s="13">
-        <v>2377429</v>
+        <v>2847700</v>
       </c>
       <c r="I98" s="13">
-        <v>2847700</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4896319</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>15</v>
       </c>
@@ -2500,23 +2500,23 @@
         <v>30</v>
       </c>
       <c r="D99" s="11"/>
-      <c r="E99" s="11" t="s">
-        <v>13</v>
+      <c r="E99" s="11">
+        <v>915732</v>
       </c>
       <c r="F99" s="11">
-        <v>915732</v>
+        <v>1401236</v>
       </c>
       <c r="G99" s="11">
-        <v>1401236</v>
+        <v>1931877</v>
       </c>
       <c r="H99" s="11">
-        <v>1931877</v>
+        <v>1591623</v>
       </c>
       <c r="I99" s="11">
-        <v>1591623</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4198507</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>16</v>
       </c>
@@ -2524,45 +2524,45 @@
         <v>30</v>
       </c>
       <c r="D100" s="13"/>
-      <c r="E100" s="13" t="s">
-        <v>13</v>
+      <c r="E100" s="13">
+        <v>448700</v>
       </c>
       <c r="F100" s="13">
-        <v>448700</v>
+        <v>699518</v>
       </c>
       <c r="G100" s="13">
-        <v>699518</v>
+        <v>1044977</v>
       </c>
       <c r="H100" s="13">
-        <v>1044977</v>
+        <v>878431</v>
       </c>
       <c r="I100" s="13">
-        <v>878431</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1850354</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15">
-        <v>0</v>
+        <v>2278960</v>
       </c>
       <c r="F101" s="15">
-        <v>2278960</v>
+        <v>3639133</v>
       </c>
       <c r="G101" s="15">
-        <v>3639133</v>
+        <v>5354283</v>
       </c>
       <c r="H101" s="15">
-        <v>5354283</v>
+        <v>5317754</v>
       </c>
       <c r="I101" s="15">
-        <v>5317754</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10945180</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>49</v>
       </c>
@@ -2574,7 +2574,7 @@
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>11</v>
       </c>
@@ -2591,14 +2591,14 @@
       <c r="G103" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I103" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H103" s="11">
+        <v>0</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>14</v>
       </c>
@@ -2606,23 +2606,23 @@
         <v>30</v>
       </c>
       <c r="D104" s="13"/>
-      <c r="E104" s="13" t="s">
-        <v>13</v>
+      <c r="E104" s="13">
+        <v>3710</v>
       </c>
       <c r="F104" s="13">
-        <v>3710</v>
+        <v>2204</v>
       </c>
       <c r="G104" s="13">
-        <v>2204</v>
+        <v>1920</v>
       </c>
       <c r="H104" s="13">
-        <v>1920</v>
+        <v>11135</v>
       </c>
       <c r="I104" s="13">
-        <v>11135</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>96345</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>15</v>
       </c>
@@ -2630,23 +2630,23 @@
         <v>30</v>
       </c>
       <c r="D105" s="11"/>
-      <c r="E105" s="11" t="s">
-        <v>13</v>
+      <c r="E105" s="11">
+        <v>1100</v>
       </c>
       <c r="F105" s="11">
-        <v>1100</v>
+        <v>2384</v>
       </c>
       <c r="G105" s="11">
-        <v>2384</v>
+        <v>1830</v>
       </c>
       <c r="H105" s="11">
-        <v>1830</v>
+        <v>8596</v>
       </c>
       <c r="I105" s="11">
-        <v>8596</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+        <v>268569</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>16</v>
       </c>
@@ -2654,45 +2654,45 @@
         <v>30</v>
       </c>
       <c r="D106" s="13"/>
-      <c r="E106" s="13" t="s">
-        <v>13</v>
+      <c r="E106" s="13">
+        <v>3979</v>
       </c>
       <c r="F106" s="13">
-        <v>3979</v>
+        <v>1587</v>
       </c>
       <c r="G106" s="13">
-        <v>1587</v>
+        <v>3426</v>
       </c>
       <c r="H106" s="13">
-        <v>3426</v>
+        <v>6039</v>
       </c>
       <c r="I106" s="13">
-        <v>6039</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>44097</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
-        <v>0</v>
+        <v>8789</v>
       </c>
       <c r="F107" s="15">
-        <v>8789</v>
+        <v>6175</v>
       </c>
       <c r="G107" s="15">
-        <v>6175</v>
+        <v>7176</v>
       </c>
       <c r="H107" s="15">
-        <v>7176</v>
+        <v>25770</v>
       </c>
       <c r="I107" s="15">
-        <v>25770</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>409011</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>51</v>
       </c>
@@ -2704,7 +2704,7 @@
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>21</v>
       </c>
@@ -2721,14 +2721,14 @@
       <c r="G109" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H109" s="11" t="s">
-        <v>13</v>
+      <c r="H109" s="11">
+        <v>11828</v>
       </c>
       <c r="I109" s="11">
-        <v>11828</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20914</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="16" t="s">
         <v>52</v>
       </c>
@@ -2744,32 +2744,32 @@
         <v>0</v>
       </c>
       <c r="H110" s="17">
-        <v>0</v>
+        <v>11828</v>
       </c>
       <c r="I110" s="17">
-        <v>11828</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20914</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15">
-        <v>0</v>
+        <v>2287749</v>
       </c>
       <c r="F111" s="15">
-        <v>2287749</v>
+        <v>3645308</v>
       </c>
       <c r="G111" s="15">
-        <v>3645308</v>
+        <v>5361459</v>
       </c>
       <c r="H111" s="15">
-        <v>5361459</v>
+        <v>5355352</v>
       </c>
       <c r="I111" s="15">
-        <v>5355352</v>
+        <v>11375105</v>
       </c>
     </row>
   </sheetData>
